--- a/documentation/planning et journal.xlsx
+++ b/documentation/planning et journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/nicolas_rouiller_edufr_ch/Documents/Cours/151/ProjetPersonnel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/simon_gendre_studentfr_ch/Documents/EMF/Modules/151/module-151-Gendres/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7809736A-49CF-49ED-A7AC-BD603567BB6B}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D5DF45-4875-4EB1-A131-3E7E58AEA6F5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>04.03.2023 - A-M</t>
+  </si>
+  <si>
+    <t>Simon Gendre / 633</t>
+  </si>
+  <si>
+    <t>Semaphor</t>
+  </si>
+  <si>
+    <t>introduction du projet</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -742,6 +751,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,9 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -774,12 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,78 +1096,84 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="35" t="str">
+        <f>'Journal de travail'!B3</f>
+        <v>Simon Gendre / 633</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="33">
-        <v>300231</v>
-      </c>
-      <c r="Q3" s="35"/>
-    </row>
-    <row r="4" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P3" s="35">
+        <v>300633</v>
+      </c>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="35" t="str">
+        <f>'Journal de travail'!B4</f>
+        <v>Semaphor</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1169,36 +1181,36 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36" t="s">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="36" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="36" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1239,7 @@
       <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -1249,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1259,12 +1271,12 @@
       <c r="E9" s="14"/>
       <c r="F9" s="8"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="14"/>
       <c r="M9" s="8"/>
       <c r="N9" s="15"/>
@@ -1272,7 +1284,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="14"/>
       <c r="C10" s="8"/>
@@ -1280,10 +1292,10 @@
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="14"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="43"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="14"/>
       <c r="M10" s="8"/>
       <c r="N10" s="15"/>
@@ -1291,7 +1303,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
@@ -1301,10 +1313,10 @@
       <c r="E11" s="14"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="14"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="14"/>
       <c r="M11" s="8"/>
       <c r="N11" s="15"/>
@@ -1312,7 +1324,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="14"/>
       <c r="C12" s="8"/>
@@ -1320,10 +1332,10 @@
       <c r="E12" s="14"/>
       <c r="F12" s="8"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="14"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="43"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="14"/>
       <c r="M12" s="8"/>
       <c r="N12" s="15"/>
@@ -1331,7 +1343,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="14"/>
       <c r="C13" s="8"/>
@@ -1339,10 +1351,10 @@
       <c r="E13" s="14"/>
       <c r="F13" s="8"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="41"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="14"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="43"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="14"/>
       <c r="M13" s="8"/>
       <c r="N13" s="15"/>
@@ -1350,7 +1362,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="14"/>
       <c r="C14" s="8"/>
@@ -1358,10 +1370,10 @@
       <c r="E14" s="14"/>
       <c r="F14" s="8"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="14"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="43"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="14"/>
       <c r="M14" s="8"/>
       <c r="N14" s="15"/>
@@ -1369,7 +1381,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
@@ -1379,10 +1391,10 @@
       <c r="E15" s="14"/>
       <c r="F15" s="8"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="14"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="43"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="14"/>
       <c r="M15" s="8"/>
       <c r="N15" s="15"/>
@@ -1390,7 +1402,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="14"/>
       <c r="C16" s="8"/>
@@ -1398,10 +1410,10 @@
       <c r="E16" s="14"/>
       <c r="F16" s="8"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="41"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="14"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="43"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="14"/>
       <c r="M16" s="8"/>
       <c r="N16" s="15"/>
@@ -1409,7 +1421,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="14"/>
       <c r="C17" s="8"/>
@@ -1417,10 +1429,10 @@
       <c r="E17" s="14"/>
       <c r="F17" s="8"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="14"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="43"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="14"/>
       <c r="M17" s="8"/>
       <c r="N17" s="15"/>
@@ -1428,7 +1440,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="14"/>
       <c r="C18" s="8"/>
@@ -1436,10 +1448,10 @@
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="41"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="14"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="43"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="14"/>
       <c r="M18" s="8"/>
       <c r="N18" s="15"/>
@@ -1447,7 +1459,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -1457,10 +1469,10 @@
       <c r="E19" s="14"/>
       <c r="F19" s="8"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="14"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="43"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="14"/>
       <c r="M19" s="8"/>
       <c r="N19" s="15"/>
@@ -1468,7 +1480,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="14"/>
       <c r="C20" s="8"/>
@@ -1476,10 +1488,10 @@
       <c r="E20" s="14"/>
       <c r="F20" s="8"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="14"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="43"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8"/>
       <c r="N20" s="15"/>
@@ -1487,7 +1499,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="14"/>
       <c r="C21" s="8"/>
@@ -1495,10 +1507,10 @@
       <c r="E21" s="14"/>
       <c r="F21" s="8"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="14"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="43"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8"/>
       <c r="N21" s="15"/>
@@ -1506,7 +1518,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="14"/>
       <c r="C22" s="8"/>
@@ -1514,10 +1526,10 @@
       <c r="E22" s="14"/>
       <c r="F22" s="8"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="41"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="14"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="43"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8"/>
       <c r="N22" s="15"/>
@@ -1525,7 +1537,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
@@ -1535,10 +1547,10 @@
       <c r="E23" s="14"/>
       <c r="F23" s="8"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="14"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="43"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8"/>
       <c r="N23" s="15"/>
@@ -1546,7 +1558,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="14"/>
       <c r="C24" s="8"/>
@@ -1554,10 +1566,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="8"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="43"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8"/>
       <c r="N24" s="15"/>
@@ -1565,7 +1577,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
@@ -1573,10 +1585,10 @@
       <c r="E25" s="14"/>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="41"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="14"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="43"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8"/>
       <c r="N25" s="15"/>
@@ -1584,7 +1596,7 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -1592,10 +1604,10 @@
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="44"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
       <c r="N26" s="18"/>
@@ -1605,6 +1617,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H9:H26"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
@@ -1614,7 +1627,6 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H9:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1633,39 +1645,43 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -1676,112 +1692,118 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>45320</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="24"/>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="24"/>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="24"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="24"/>
       <c r="C12" s="28"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="24"/>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="24"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="24"/>
       <c r="C16" s="28"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="24"/>
       <c r="C17" s="28"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="24"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="24"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24"/>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="24"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="28">
         <f>SUM(C8:C21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>31</v>
       </c>
@@ -2055,15 +2077,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fec9890b-0385-4b97-bf60-756cae999a32">
@@ -2074,14 +2087,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DAFA2A-9886-4E5D-A1BA-68C0E131A833}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DAFA2A-9886-4E5D-A1BA-68C0E131A833}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
+    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAB6660-9544-4877-B428-B71D249521C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
+    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAB6660-9544-4877-B428-B71D249521C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/planning et journal.xlsx
+++ b/documentation/planning et journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/simon_gendre_studentfr_ch/Documents/EMF/Modules/151/module-151-Gendres/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151-Gendres\git\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D5DF45-4875-4EB1-A131-3E7E58AEA6F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD9B08-9976-47F4-9DFB-A8F8DA2C9C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Tâches</t>
   </si>
@@ -273,6 +273,57 @@
   </si>
   <si>
     <t>introduction du projet</t>
+  </si>
+  <si>
+    <t>diagrammes Use Cases</t>
+  </si>
+  <si>
+    <t>use cases</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>maquettes</t>
+  </si>
+  <si>
+    <t>diagramme d'activités</t>
+  </si>
+  <si>
+    <t>diagramme de séquences</t>
+  </si>
+  <si>
+    <t>schéma ER</t>
+  </si>
+  <si>
+    <t>diagramme de classe serveur</t>
+  </si>
+  <si>
+    <t>diagramme de classe client</t>
+  </si>
+  <si>
+    <t>diagramme de séquence interactions</t>
+  </si>
+  <si>
+    <t>schéma relationnel DB</t>
+  </si>
+  <si>
+    <t>code Serveur</t>
+  </si>
+  <si>
+    <t>code Client</t>
+  </si>
+  <si>
+    <t>Hebergement</t>
+  </si>
+  <si>
+    <t>descente de code</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -686,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -757,6 +808,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,14 +838,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,10 +1149,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1107,73 +1162,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Journal de travail'!B3</f>
         <v>Simon Gendre / 633</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="38">
         <v>300633</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="str">
+      <c r="B4" s="38" t="str">
         <f>'Journal de travail'!B4</f>
         <v>Semaphor</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1183,32 +1238,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="38" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="38" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1265,13 +1320,17 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="8"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="34" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="14"/>
@@ -1292,7 +1351,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="14"/>
       <c r="J10" s="8"/>
       <c r="K10" s="32"/>
@@ -1313,7 +1372,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="14"/>
       <c r="J11" s="8"/>
       <c r="K11" s="32"/>
@@ -1325,14 +1384,20 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14"/>
       <c r="F12" s="8"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="42"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="14"/>
       <c r="J12" s="8"/>
       <c r="K12" s="32"/>
@@ -1344,14 +1409,18 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="8"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="14"/>
       <c r="J13" s="8"/>
       <c r="K13" s="32"/>
@@ -1363,14 +1432,16 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="8"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="42"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="14"/>
       <c r="J14" s="8"/>
       <c r="K14" s="32"/>
@@ -1381,17 +1452,17 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>13</v>
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="42"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="14"/>
       <c r="J15" s="8"/>
       <c r="K15" s="32"/>
@@ -1403,14 +1474,16 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="15"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="14"/>
       <c r="J16" s="8"/>
       <c r="K16" s="32"/>
@@ -1422,14 +1495,16 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="15"/>
       <c r="E17" s="14"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="42"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="14"/>
       <c r="J17" s="8"/>
       <c r="K17" s="32"/>
@@ -1443,12 +1518,12 @@
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="42"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="14"/>
       <c r="J18" s="8"/>
       <c r="K18" s="32"/>
@@ -1459,17 +1534,15 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>14</v>
-      </c>
+    <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
       <c r="F19" s="8"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="42"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="14"/>
       <c r="J19" s="8"/>
       <c r="K19" s="32"/>
@@ -1488,7 +1561,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="8"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="42"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="14"/>
       <c r="J20" s="8"/>
       <c r="K20" s="32"/>
@@ -1499,15 +1572,17 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="8"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
       <c r="F21" s="8"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="14"/>
       <c r="J21" s="8"/>
       <c r="K21" s="32"/>
@@ -1519,15 +1594,17 @@
       <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="8"/>
       <c r="D22" s="15"/>
       <c r="E22" s="14"/>
       <c r="F22" s="8"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="8"/>
       <c r="K22" s="32"/>
       <c r="L22" s="14"/>
@@ -1537,9 +1614,9 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>15</v>
+    <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="8"/>
@@ -1547,9 +1624,9 @@
       <c r="E23" s="14"/>
       <c r="F23" s="8"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="32"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8"/>
@@ -1559,17 +1636,19 @@
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="8"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
       <c r="F24" s="8"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="42"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8"/>
       <c r="N24" s="15"/>
@@ -1578,17 +1657,19 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="14"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8"/>
       <c r="N25" s="15"/>
@@ -1596,28 +1677,252 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="18"/>
+    <row r="26" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="H9:H26"/>
+    <mergeCell ref="H9:H37"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
@@ -1644,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,11 +1961,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1704,9 +2009,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="27">
+        <v>45321</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -1775,7 +2086,7 @@
       <c r="B22" s="24"/>
       <c r="C22" s="28">
         <f>SUM(C8:C21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,6 +2133,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fec9890b-0385-4b97-bf60-756cae999a32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0628bb02-9a5c-4726-9a61-75fde915aaf9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005527F882C56960409CF3FB2B047920CD" ma:contentTypeVersion="18" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="07b97e13f27cbcfe17b734c6cbb54e9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fec9890b-0385-4b97-bf60-756cae999a32" xmlns:ns3="0628bb02-9a5c-4726-9a61-75fde915aaf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfb78319e54262cd22c56c9b99a05c90" ns2:_="" ns3:_="">
     <xsd:import namespace="fec9890b-0385-4b97-bf60-756cae999a32"/>
@@ -2076,27 +2407,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fec9890b-0385-4b97-bf60-756cae999a32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0628bb02-9a5c-4726-9a61-75fde915aaf9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAB6660-9544-4877-B428-B71D249521C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
+    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DAFA2A-9886-4E5D-A1BA-68C0E131A833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2113,23 +2443,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAB6660-9544-4877-B428-B71D249521C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
-    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/planning et journal.xlsx
+++ b/documentation/planning et journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151-Gendres\git\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD9B08-9976-47F4-9DFB-A8F8DA2C9C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D1178-CDF8-4FD4-9E3C-D4FE1A8E8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Tâches</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>création des maquettes</t>
+  </si>
+  <si>
+    <t>diagramme d'activité</t>
+  </si>
+  <si>
+    <t>diagramme de séquence</t>
   </si>
 </sst>
 </file>
@@ -737,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -808,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -837,10 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1162,73 +1170,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="str">
+      <c r="B3" s="39" t="str">
         <f>'Journal de travail'!B3</f>
         <v>Simon Gendre / 633</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="39">
         <v>300633</v>
       </c>
-      <c r="Q3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="str">
+      <c r="B4" s="39" t="str">
         <f>'Journal de travail'!B4</f>
         <v>Semaphor</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1238,32 +1246,32 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="41" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="41" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1327,10 +1335,12 @@
         <v>49</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="14"/>
@@ -1351,7 +1361,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="14"/>
       <c r="J10" s="8"/>
       <c r="K10" s="32"/>
@@ -1372,7 +1382,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="14"/>
       <c r="J11" s="8"/>
       <c r="K11" s="32"/>
@@ -1390,14 +1400,14 @@
       <c r="B12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14"/>
       <c r="F12" s="8"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="14"/>
       <c r="J12" s="8"/>
       <c r="K12" s="32"/>
@@ -1417,10 +1427,12 @@
       <c r="D13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="35"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="14"/>
       <c r="J13" s="8"/>
       <c r="K13" s="32"/>
@@ -1436,12 +1448,14 @@
         <v>51</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="14"/>
       <c r="J14" s="8"/>
       <c r="K14" s="32"/>
@@ -1457,12 +1471,14 @@
         <v>52</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="35"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="14"/>
       <c r="J15" s="8"/>
       <c r="K15" s="32"/>
@@ -1478,12 +1494,14 @@
         <v>53</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="35"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="14"/>
       <c r="J16" s="8"/>
       <c r="K16" s="32"/>
@@ -1499,12 +1517,14 @@
         <v>54</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="44"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="8"/>
       <c r="K17" s="32"/>
@@ -1518,12 +1538,12 @@
     <row r="18" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="35"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="14"/>
       <c r="J18" s="8"/>
       <c r="K18" s="32"/>
@@ -1537,12 +1557,12 @@
     <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="44"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
       <c r="F19" s="8"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="14"/>
       <c r="J19" s="8"/>
       <c r="K19" s="32"/>
@@ -1561,7 +1581,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="8"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="14"/>
       <c r="J20" s="8"/>
       <c r="K20" s="32"/>
@@ -1582,7 +1602,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="8"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="35"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="14"/>
       <c r="J21" s="8"/>
       <c r="K21" s="32"/>
@@ -1603,7 +1623,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="8"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="35"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="12"/>
       <c r="J22" s="8"/>
       <c r="K22" s="32"/>
@@ -1624,7 +1644,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="8"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="35"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="14"/>
       <c r="J23" s="7"/>
       <c r="K23" s="32"/>
@@ -1645,10 +1665,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="8"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="35"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8"/>
       <c r="N24" s="15"/>
@@ -1666,10 +1686,10 @@
       <c r="E25" s="14"/>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="35"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="14"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8"/>
       <c r="N25" s="15"/>
@@ -1685,7 +1705,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="8"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="35"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="14"/>
       <c r="J26" s="8"/>
       <c r="K26" s="32"/>
@@ -1706,7 +1726,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="8"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="14"/>
       <c r="J27" s="8"/>
       <c r="K27" s="32"/>
@@ -1727,7 +1747,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="8"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="35"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="14"/>
       <c r="J28" s="8"/>
       <c r="K28" s="32"/>
@@ -1748,7 +1768,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="8"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="35"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="14"/>
       <c r="J29" s="8"/>
       <c r="K29" s="32"/>
@@ -1769,7 +1789,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="35"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="14"/>
       <c r="J30" s="8"/>
       <c r="K30" s="32"/>
@@ -1790,7 +1810,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="8"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="35"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="14"/>
       <c r="J31" s="8"/>
       <c r="K31" s="32"/>
@@ -1809,7 +1829,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="8"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="35"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="14"/>
       <c r="J32" s="8"/>
       <c r="K32" s="32"/>
@@ -1828,7 +1848,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="8"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="35"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="14"/>
       <c r="J33" s="8"/>
       <c r="K33" s="32"/>
@@ -1847,7 +1867,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="8"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="14"/>
       <c r="J34" s="8"/>
       <c r="K34" s="32"/>
@@ -1868,16 +1888,16 @@
       <c r="E35" s="14"/>
       <c r="F35" s="8"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="14"/>
       <c r="J35" s="8"/>
       <c r="K35" s="32"/>
       <c r="L35" s="14"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -1887,7 +1907,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="8"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="14"/>
       <c r="J36" s="8"/>
       <c r="K36" s="32"/>
@@ -1906,7 +1926,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="36"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
       <c r="K37" s="33"/>
@@ -1949,8 +1969,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,11 +1981,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2020,24 +2040,48 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27">
+        <v>45327</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="27">
+        <v>45327</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="27">
+        <v>45327</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="27">
+        <v>45327</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
@@ -2086,7 +2130,7 @@
       <c r="B22" s="24"/>
       <c r="C22" s="28">
         <f>SUM(C8:C21)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,26 +2177,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fec9890b-0385-4b97-bf60-756cae999a32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0628bb02-9a5c-4726-9a61-75fde915aaf9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005527F882C56960409CF3FB2B047920CD" ma:contentTypeVersion="18" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="07b97e13f27cbcfe17b734c6cbb54e9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fec9890b-0385-4b97-bf60-756cae999a32" xmlns:ns3="0628bb02-9a5c-4726-9a61-75fde915aaf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfb78319e54262cd22c56c9b99a05c90" ns2:_="" ns3:_="">
     <xsd:import namespace="fec9890b-0385-4b97-bf60-756cae999a32"/>
@@ -2407,10 +2431,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fec9890b-0385-4b97-bf60-756cae999a32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0628bb02-9a5c-4726-9a61-75fde915aaf9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DAFA2A-9886-4E5D-A1BA-68C0E131A833}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
+    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2427,20 +2482,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DAFA2A-9886-4E5D-A1BA-68C0E131A833}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB721BDB-9F5F-4A98-BDDC-DB34308CB936}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fec9890b-0385-4b97-bf60-756cae999a32"/>
-    <ds:schemaRef ds:uri="0628bb02-9a5c-4726-9a61-75fde915aaf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>